--- a/PopularTargets.xlsx
+++ b/PopularTargets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="583">
   <si>
     <t>Genes</t>
   </si>
@@ -22,346 +22,1747 @@
     <t># of Patents</t>
   </si>
   <si>
+    <t>COX8A</t>
+  </si>
+  <si>
+    <t>KNG1</t>
+  </si>
+  <si>
+    <t>CDR1</t>
+  </si>
+  <si>
+    <t>KLKB1</t>
+  </si>
+  <si>
+    <t>CDR2</t>
+  </si>
+  <si>
+    <t>KLK4</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>GPR17</t>
+  </si>
+  <si>
+    <t>SLC27A4</t>
+  </si>
+  <si>
+    <t>ISYNA1</t>
+  </si>
+  <si>
+    <t>PNLIP</t>
+  </si>
+  <si>
+    <t>CSF2</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>LAMC2</t>
+  </si>
+  <si>
+    <t>SEPTIN4</t>
+  </si>
+  <si>
+    <t>SERPING1</t>
+  </si>
+  <si>
+    <t>ZGLP1</t>
+  </si>
+  <si>
+    <t>SOD1</t>
+  </si>
+  <si>
+    <t>HCRT</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>ACAD8</t>
+  </si>
+  <si>
+    <t>VWF</t>
+  </si>
+  <si>
+    <t>CPB2</t>
+  </si>
+  <si>
+    <t>OXER1</t>
+  </si>
+  <si>
+    <t>CYP46A1</t>
+  </si>
+  <si>
+    <t>IL17F</t>
+  </si>
+  <si>
+    <t>GCG</t>
+  </si>
+  <si>
+    <t>ATP4A</t>
+  </si>
+  <si>
+    <t>DSC3</t>
+  </si>
+  <si>
+    <t>PRPS1</t>
+  </si>
+  <si>
+    <t>ATP12A</t>
+  </si>
+  <si>
+    <t>FFAR1</t>
+  </si>
+  <si>
+    <t>PMP22</t>
+  </si>
+  <si>
+    <t>SLC1A5</t>
+  </si>
+  <si>
+    <t>IL17A</t>
+  </si>
+  <si>
+    <t>GLP1R</t>
+  </si>
+  <si>
+    <t>GPR6</t>
+  </si>
+  <si>
+    <t>PIK3CG</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>HDAC9</t>
+  </si>
+  <si>
+    <t>HDAC6</t>
+  </si>
+  <si>
+    <t>ESD</t>
+  </si>
+  <si>
+    <t>AMH</t>
+  </si>
+  <si>
+    <t>CISH</t>
+  </si>
+  <si>
+    <t>FURIN</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>MGLL</t>
+  </si>
+  <si>
+    <t>PIK3CD</t>
+  </si>
+  <si>
+    <t>RB1</t>
+  </si>
+  <si>
+    <t>MAP2K7</t>
+  </si>
+  <si>
+    <t>CARS1</t>
+  </si>
+  <si>
+    <t>BRD2</t>
+  </si>
+  <si>
+    <t>CD38</t>
+  </si>
+  <si>
+    <t>TBK1</t>
+  </si>
+  <si>
+    <t>PROKR1</t>
+  </si>
+  <si>
+    <t>C12orf57</t>
+  </si>
+  <si>
+    <t>ARSA</t>
+  </si>
+  <si>
+    <t>GBA</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>NR0B1</t>
+  </si>
+  <si>
+    <t>CNR2</t>
+  </si>
+  <si>
+    <t>TYK2</t>
+  </si>
+  <si>
+    <t>PRKAR1A</t>
+  </si>
+  <si>
+    <t>IL6</t>
+  </si>
+  <si>
+    <t>MRGPRX4</t>
+  </si>
+  <si>
+    <t>PDE4A</t>
+  </si>
+  <si>
+    <t>BTK</t>
+  </si>
+  <si>
+    <t>VHLL</t>
+  </si>
+  <si>
+    <t>PDE2A</t>
+  </si>
+  <si>
+    <t>EGFR</t>
+  </si>
+  <si>
+    <t>TMEM11</t>
+  </si>
+  <si>
+    <t>EGF</t>
+  </si>
+  <si>
+    <t>RBL2</t>
+  </si>
+  <si>
+    <t>SYK</t>
+  </si>
+  <si>
+    <t>TMPRSS15</t>
+  </si>
+  <si>
+    <t>FLT1</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>PMCH</t>
+  </si>
+  <si>
+    <t>CR2</t>
+  </si>
+  <si>
+    <t>MOS</t>
+  </si>
+  <si>
+    <t>CASR</t>
+  </si>
+  <si>
+    <t>PTH</t>
+  </si>
+  <si>
+    <t>PDE10A</t>
+  </si>
+  <si>
+    <t>ELF3</t>
+  </si>
+  <si>
+    <t>CPVL</t>
+  </si>
+  <si>
+    <t>PSEN1</t>
+  </si>
+  <si>
+    <t>TNF</t>
+  </si>
+  <si>
+    <t>ALK</t>
+  </si>
+  <si>
+    <t>NR4A1</t>
+  </si>
+  <si>
+    <t>NPR2</t>
+  </si>
+  <si>
+    <t>VEGFA</t>
+  </si>
+  <si>
+    <t>OMA1</t>
+  </si>
+  <si>
+    <t>CRLF1</t>
+  </si>
+  <si>
+    <t>DECR1</t>
+  </si>
+  <si>
+    <t>MPZ</t>
+  </si>
+  <si>
+    <t>HDAC5</t>
+  </si>
+  <si>
+    <t>PROKR2</t>
+  </si>
+  <si>
+    <t>KDM1A</t>
+  </si>
+  <si>
+    <t>OR2AG1</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>ECI1</t>
+  </si>
+  <si>
+    <t>RRH</t>
+  </si>
+  <si>
+    <t>PARP1</t>
+  </si>
+  <si>
+    <t>HTR2C</t>
+  </si>
+  <si>
+    <t>DSG3</t>
+  </si>
+  <si>
+    <t>PDC</t>
+  </si>
+  <si>
+    <t>JAK2</t>
+  </si>
+  <si>
+    <t>JAK3</t>
+  </si>
+  <si>
+    <t>GRIN2B</t>
+  </si>
+  <si>
+    <t>CDK8</t>
+  </si>
+  <si>
+    <t>SCARB2</t>
+  </si>
+  <si>
+    <t>SERPINA1</t>
+  </si>
+  <si>
+    <t>APOE</t>
+  </si>
+  <si>
+    <t>TLR4</t>
+  </si>
+  <si>
+    <t>SSTR5</t>
+  </si>
+  <si>
+    <t>METAP2</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>GPSM2</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>ACACA</t>
+  </si>
+  <si>
+    <t>MADCAM1</t>
+  </si>
+  <si>
+    <t>CTNND1</t>
+  </si>
+  <si>
+    <t>NT5C2</t>
+  </si>
+  <si>
+    <t>PIMREG</t>
+  </si>
+  <si>
+    <t>ACHE</t>
+  </si>
+  <si>
+    <t>PROS1</t>
+  </si>
+  <si>
+    <t>IGF2R</t>
+  </si>
+  <si>
+    <t>PRCP</t>
+  </si>
+  <si>
+    <t>BCR</t>
+  </si>
+  <si>
+    <t>GAA</t>
+  </si>
+  <si>
+    <t>FST</t>
+  </si>
+  <si>
+    <t>PMM2</t>
+  </si>
+  <si>
+    <t>MSN</t>
+  </si>
+  <si>
+    <t>IRF3</t>
+  </si>
+  <si>
+    <t>NDOR1</t>
+  </si>
+  <si>
+    <t>CDK19</t>
+  </si>
+  <si>
+    <t>TSPO</t>
+  </si>
+  <si>
+    <t>CINP</t>
+  </si>
+  <si>
+    <t>CR1</t>
+  </si>
+  <si>
+    <t>METAP1</t>
+  </si>
+  <si>
+    <t>C3orf62</t>
+  </si>
+  <si>
+    <t>PNP</t>
+  </si>
+  <si>
+    <t>MOCOS</t>
+  </si>
+  <si>
+    <t>ALDH7A1</t>
+  </si>
+  <si>
+    <t>DEGS1</t>
+  </si>
+  <si>
+    <t>CSE1L</t>
+  </si>
+  <si>
+    <t>TP53</t>
+  </si>
+  <si>
     <t>GADL1</t>
   </si>
   <si>
+    <t>TIPARP</t>
+  </si>
+  <si>
+    <t>MSTN</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>IFNAR1</t>
+  </si>
+  <si>
+    <t>WDTC1</t>
+  </si>
+  <si>
+    <t>SSRP1</t>
+  </si>
+  <si>
+    <t>PTRH2</t>
+  </si>
+  <si>
+    <t>SPINK6</t>
+  </si>
+  <si>
+    <t>GHRL</t>
+  </si>
+  <si>
+    <t>TRH</t>
+  </si>
+  <si>
+    <t>GHSR</t>
+  </si>
+  <si>
+    <t>PIK3C3</t>
+  </si>
+  <si>
+    <t>SUMO2</t>
+  </si>
+  <si>
+    <t>ARHGAP9</t>
+  </si>
+  <si>
+    <t>PRAG1</t>
+  </si>
+  <si>
+    <t>SNCA</t>
+  </si>
+  <si>
+    <t>RUNX2</t>
+  </si>
+  <si>
+    <t>NAAA</t>
+  </si>
+  <si>
+    <t>JAK1</t>
+  </si>
+  <si>
+    <t>FFAR2</t>
+  </si>
+  <si>
+    <t>BMS1</t>
+  </si>
+  <si>
+    <t>SCD</t>
+  </si>
+  <si>
+    <t>COMT</t>
+  </si>
+  <si>
+    <t>AGXT</t>
+  </si>
+  <si>
+    <t>PTPN11</t>
+  </si>
+  <si>
+    <t>UTS2R</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>CAPS</t>
+  </si>
+  <si>
+    <t>C1S</t>
+  </si>
+  <si>
+    <t>PSEN2</t>
+  </si>
+  <si>
+    <t>ADAMTS13</t>
+  </si>
+  <si>
+    <t>NOS2</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>TFPI</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>TACR1</t>
+  </si>
+  <si>
+    <t>GRM7</t>
+  </si>
+  <si>
+    <t>GLA</t>
+  </si>
+  <si>
+    <t>MS4A1</t>
+  </si>
+  <si>
+    <t>FTO</t>
+  </si>
+  <si>
+    <t>CFI</t>
+  </si>
+  <si>
+    <t>RAF1</t>
+  </si>
+  <si>
+    <t>REM1</t>
+  </si>
+  <si>
+    <t>EPRS1</t>
+  </si>
+  <si>
+    <t>ERBB2</t>
+  </si>
+  <si>
+    <t>RBP4</t>
+  </si>
+  <si>
+    <t>FGF2</t>
+  </si>
+  <si>
+    <t>TAC1</t>
+  </si>
+  <si>
+    <t>F2RL1</t>
+  </si>
+  <si>
+    <t>NEDD8</t>
+  </si>
+  <si>
+    <t>UBA6</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>NR1I2</t>
+  </si>
+  <si>
+    <t>TNK2</t>
+  </si>
+  <si>
+    <t>MERTK</t>
+  </si>
+  <si>
+    <t>CD4</t>
+  </si>
+  <si>
+    <t>CRISPLD2</t>
+  </si>
+  <si>
+    <t>TIMP1</t>
+  </si>
+  <si>
+    <t>TWNK</t>
+  </si>
+  <si>
+    <t>TNFRSF8</t>
+  </si>
+  <si>
+    <t>PDP1</t>
+  </si>
+  <si>
+    <t>IGF1</t>
+  </si>
+  <si>
+    <t>GAD1</t>
+  </si>
+  <si>
+    <t>MBD2</t>
+  </si>
+  <si>
+    <t>SUMO1</t>
+  </si>
+  <si>
+    <t>PPP1R3F</t>
+  </si>
+  <si>
+    <t>PSAT1</t>
+  </si>
+  <si>
+    <t>GADD45G</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>PYY</t>
+  </si>
+  <si>
+    <t>ATP6AP1</t>
+  </si>
+  <si>
+    <t>RNF19A</t>
+  </si>
+  <si>
+    <t>ZAP70</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>SLC22A5</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>P2RX7</t>
+  </si>
+  <si>
+    <t>HCRTR2</t>
+  </si>
+  <si>
+    <t>SPTLC1</t>
+  </si>
+  <si>
+    <t>SLC14A2</t>
+  </si>
+  <si>
+    <t>CADPS</t>
+  </si>
+  <si>
+    <t>NOS1</t>
+  </si>
+  <si>
+    <t>CA6</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>BEST1</t>
+  </si>
+  <si>
+    <t>KRT20</t>
+  </si>
+  <si>
+    <t>ZHX2</t>
+  </si>
+  <si>
+    <t>POLR2D</t>
+  </si>
+  <si>
+    <t>BCL2A1</t>
+  </si>
+  <si>
+    <t>SLC52A1</t>
+  </si>
+  <si>
+    <t>MT1E</t>
+  </si>
+  <si>
+    <t>PDE4D</t>
+  </si>
+  <si>
+    <t>PTEN</t>
+  </si>
+  <si>
+    <t>AMD1</t>
+  </si>
+  <si>
+    <t>GPER1</t>
+  </si>
+  <si>
+    <t>IL2</t>
+  </si>
+  <si>
+    <t>POLG</t>
+  </si>
+  <si>
+    <t>PPP1R1A</t>
+  </si>
+  <si>
+    <t>PIK3CB</t>
+  </si>
+  <si>
+    <t>IGFALS</t>
+  </si>
+  <si>
+    <t>SUMO3</t>
+  </si>
+  <si>
+    <t>TBX1</t>
+  </si>
+  <si>
+    <t>POLDIP2</t>
+  </si>
+  <si>
+    <t>BMP1</t>
+  </si>
+  <si>
+    <t>SUPT3H</t>
+  </si>
+  <si>
+    <t>YWHAQ</t>
+  </si>
+  <si>
+    <t>BRAF</t>
+  </si>
+  <si>
+    <t>TTR</t>
+  </si>
+  <si>
+    <t>ITGB2</t>
+  </si>
+  <si>
+    <t>KDR</t>
+  </si>
+  <si>
+    <t>RPL17</t>
+  </si>
+  <si>
+    <t>PPY</t>
+  </si>
+  <si>
+    <t>IL13</t>
+  </si>
+  <si>
     <t>AZIN2</t>
   </si>
   <si>
-    <t>CDR1</t>
+    <t>NRAS</t>
+  </si>
+  <si>
+    <t>IRAK4</t>
+  </si>
+  <si>
+    <t>SCPEP1</t>
+  </si>
+  <si>
+    <t>UQCRFS1</t>
+  </si>
+  <si>
+    <t>CCK</t>
+  </si>
+  <si>
+    <t>BDNF</t>
+  </si>
+  <si>
+    <t>TLR7</t>
+  </si>
+  <si>
+    <t>FCGRT</t>
+  </si>
+  <si>
+    <t>FXN</t>
+  </si>
+  <si>
+    <t>CDKN2A</t>
+  </si>
+  <si>
+    <t>DCC</t>
+  </si>
+  <si>
+    <t>TFRC</t>
+  </si>
+  <si>
+    <t>VANGL2</t>
+  </si>
+  <si>
+    <t>S100A10</t>
+  </si>
+  <si>
+    <t>TOMM40</t>
+  </si>
+  <si>
+    <t>SERPINF2</t>
+  </si>
+  <si>
+    <t>UPRT</t>
+  </si>
+  <si>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>TBXT</t>
+  </si>
+  <si>
+    <t>CXCR1</t>
+  </si>
+  <si>
+    <t>SDS</t>
+  </si>
+  <si>
+    <t>GPR139</t>
+  </si>
+  <si>
+    <t>AMBP</t>
+  </si>
+  <si>
+    <t>ALOX5</t>
+  </si>
+  <si>
+    <t>PTGER4</t>
+  </si>
+  <si>
+    <t>EIF2AK4</t>
+  </si>
+  <si>
+    <t>FOS</t>
+  </si>
+  <si>
+    <t>MYO1G</t>
+  </si>
+  <si>
+    <t>SCN8A</t>
+  </si>
+  <si>
+    <t>ENPP2</t>
+  </si>
+  <si>
+    <t>TWIST1</t>
+  </si>
+  <si>
+    <t>PAX7</t>
+  </si>
+  <si>
+    <t>PSAP</t>
+  </si>
+  <si>
+    <t>SLC35G5</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>CCL2</t>
   </si>
   <si>
     <t>LUM</t>
   </si>
   <si>
-    <t>CD33</t>
-  </si>
-  <si>
-    <t>RPL17</t>
+    <t>UMOD</t>
+  </si>
+  <si>
+    <t>EPO</t>
+  </si>
+  <si>
+    <t>SNRNP27</t>
+  </si>
+  <si>
+    <t>FBXO8</t>
+  </si>
+  <si>
+    <t>YWHAE</t>
+  </si>
+  <si>
+    <t>POLR3K</t>
+  </si>
+  <si>
+    <t>CLK1</t>
+  </si>
+  <si>
+    <t>NASP</t>
+  </si>
+  <si>
+    <t>PCSK9</t>
+  </si>
+  <si>
+    <t>DBP</t>
+  </si>
+  <si>
+    <t>CYP2C19</t>
+  </si>
+  <si>
+    <t>EZH2</t>
+  </si>
+  <si>
+    <t>PVR</t>
+  </si>
+  <si>
+    <t>SSTR4</t>
+  </si>
+  <si>
+    <t>RPS13</t>
+  </si>
+  <si>
+    <t>NBEAL2</t>
+  </si>
+  <si>
+    <t>NAMPT</t>
+  </si>
+  <si>
+    <t>MATN1</t>
+  </si>
+  <si>
+    <t>SPAG11B</t>
+  </si>
+  <si>
+    <t>ROM1</t>
+  </si>
+  <si>
+    <t>NTRK1</t>
+  </si>
+  <si>
+    <t>DDX41</t>
+  </si>
+  <si>
+    <t>LPA</t>
+  </si>
+  <si>
+    <t>ADRA1D</t>
+  </si>
+  <si>
+    <t>CDC7</t>
+  </si>
+  <si>
+    <t>NUSAP1</t>
+  </si>
+  <si>
+    <t>MUC16</t>
+  </si>
+  <si>
+    <t>COL26A1</t>
+  </si>
+  <si>
+    <t>PRRT2</t>
+  </si>
+  <si>
+    <t>TAF1C</t>
+  </si>
+  <si>
+    <t>TP63</t>
+  </si>
+  <si>
+    <t>SORT1</t>
+  </si>
+  <si>
+    <t>SLC2A4</t>
+  </si>
+  <si>
+    <t>UBD</t>
+  </si>
+  <si>
+    <t>EGR1</t>
+  </si>
+  <si>
+    <t>CTLA4</t>
+  </si>
+  <si>
+    <t>PGF</t>
+  </si>
+  <si>
+    <t>SERPINB3</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>MT-ND3</t>
+  </si>
+  <si>
+    <t>MMP14</t>
+  </si>
+  <si>
+    <t>TPO</t>
+  </si>
+  <si>
+    <t>SLC19A1</t>
+  </si>
+  <si>
+    <t>SLC33A1</t>
+  </si>
+  <si>
+    <t>C1QL3</t>
+  </si>
+  <si>
+    <t>RPS20</t>
+  </si>
+  <si>
+    <t>C10orf90</t>
+  </si>
+  <si>
+    <t>CFP</t>
+  </si>
+  <si>
+    <t>INTU</t>
+  </si>
+  <si>
+    <t>TAS2R38</t>
+  </si>
+  <si>
+    <t>RPE</t>
+  </si>
+  <si>
+    <t>TSC1</t>
+  </si>
+  <si>
+    <t>IGBP1</t>
+  </si>
+  <si>
+    <t>PNMA2</t>
+  </si>
+  <si>
+    <t>URI1</t>
+  </si>
+  <si>
+    <t>DLST</t>
+  </si>
+  <si>
+    <t>CLCN5</t>
+  </si>
+  <si>
+    <t>CLEC7A</t>
+  </si>
+  <si>
+    <t>CNR1</t>
+  </si>
+  <si>
+    <t>ASMT</t>
+  </si>
+  <si>
+    <t>PDX1</t>
+  </si>
+  <si>
+    <t>ERBB4</t>
+  </si>
+  <si>
+    <t>PPIP5K1</t>
+  </si>
+  <si>
+    <t>IL15</t>
+  </si>
+  <si>
+    <t>CKLF</t>
+  </si>
+  <si>
+    <t>CCR9</t>
+  </si>
+  <si>
+    <t>ATG7</t>
+  </si>
+  <si>
+    <t>NCOR2</t>
+  </si>
+  <si>
+    <t>NPM1</t>
+  </si>
+  <si>
+    <t>ASXL1</t>
+  </si>
+  <si>
+    <t>PRL</t>
+  </si>
+  <si>
+    <t>TNMD</t>
+  </si>
+  <si>
+    <t>FAAH</t>
+  </si>
+  <si>
+    <t>GLTP</t>
+  </si>
+  <si>
+    <t>ABCG2</t>
+  </si>
+  <si>
+    <t>CFH</t>
+  </si>
+  <si>
+    <t>ELANE</t>
+  </si>
+  <si>
+    <t>PML</t>
+  </si>
+  <si>
+    <t>TBCC</t>
+  </si>
+  <si>
+    <t>GUCY2C</t>
+  </si>
+  <si>
+    <t>TLR3</t>
+  </si>
+  <si>
+    <t>RIPK1</t>
+  </si>
+  <si>
+    <t>TLR9</t>
+  </si>
+  <si>
+    <t>MTOR</t>
+  </si>
+  <si>
+    <t>ARIH1</t>
+  </si>
+  <si>
+    <t>BLOC1S5</t>
+  </si>
+  <si>
+    <t>HTR3A</t>
+  </si>
+  <si>
+    <t>IGFBP4</t>
+  </si>
+  <si>
+    <t>EXOSC3</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>SQSTM1</t>
+  </si>
+  <si>
+    <t>BCHE</t>
+  </si>
+  <si>
+    <t>UPP1</t>
+  </si>
+  <si>
+    <t>SRGN</t>
+  </si>
+  <si>
+    <t>GH1</t>
+  </si>
+  <si>
+    <t>HLA-B</t>
+  </si>
+  <si>
+    <t>ATF4</t>
+  </si>
+  <si>
+    <t>KRT32</t>
+  </si>
+  <si>
+    <t>SCN2A</t>
+  </si>
+  <si>
+    <t>LIF</t>
+  </si>
+  <si>
+    <t>KRAS</t>
+  </si>
+  <si>
+    <t>GALNS</t>
+  </si>
+  <si>
+    <t>ZFP36</t>
+  </si>
+  <si>
+    <t>CPE</t>
+  </si>
+  <si>
+    <t>LOXL2</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>TNFRSF13B</t>
+  </si>
+  <si>
+    <t>MYC</t>
+  </si>
+  <si>
+    <t>SLC5A5</t>
+  </si>
+  <si>
+    <t>GPR182</t>
+  </si>
+  <si>
+    <t>FBRS</t>
+  </si>
+  <si>
+    <t>TET2</t>
+  </si>
+  <si>
+    <t>GZMB</t>
+  </si>
+  <si>
+    <t>U2AF1</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>GCGR</t>
+  </si>
+  <si>
+    <t>PLVAP</t>
+  </si>
+  <si>
+    <t>CA1</t>
+  </si>
+  <si>
+    <t>ARSH</t>
+  </si>
+  <si>
+    <t>NHLH1</t>
+  </si>
+  <si>
+    <t>SPAG11A</t>
+  </si>
+  <si>
+    <t>MT1A</t>
+  </si>
+  <si>
+    <t>ABCD1</t>
+  </si>
+  <si>
+    <t>LPAR5</t>
+  </si>
+  <si>
+    <t>LNPK</t>
+  </si>
+  <si>
+    <t>NBR1</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>CACNA1C</t>
+  </si>
+  <si>
+    <t>ESR1</t>
+  </si>
+  <si>
+    <t>RAI1</t>
+  </si>
+  <si>
+    <t>TAF1B</t>
+  </si>
+  <si>
+    <t>RPSA</t>
+  </si>
+  <si>
+    <t>HM13</t>
+  </si>
+  <si>
+    <t>AQP4</t>
+  </si>
+  <si>
+    <t>EMD</t>
+  </si>
+  <si>
+    <t>BBS9</t>
+  </si>
+  <si>
+    <t>PDCD1</t>
+  </si>
+  <si>
+    <t>RNASE1</t>
+  </si>
+  <si>
+    <t>MT-CO3</t>
+  </si>
+  <si>
+    <t>MMP2</t>
+  </si>
+  <si>
+    <t>PRDM10</t>
+  </si>
+  <si>
+    <t>CALD1</t>
+  </si>
+  <si>
+    <t>THPO</t>
+  </si>
+  <si>
+    <t>RFC1</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>TESC</t>
+  </si>
+  <si>
+    <t>SULT2A1</t>
+  </si>
+  <si>
+    <t>SLC6A8</t>
+  </si>
+  <si>
+    <t>ACSBG2</t>
+  </si>
+  <si>
+    <t>ADIPOQ</t>
+  </si>
+  <si>
+    <t>GRIK3</t>
+  </si>
+  <si>
+    <t>ERBB3</t>
+  </si>
+  <si>
+    <t>IP6K2</t>
+  </si>
+  <si>
+    <t>CYTL1</t>
+  </si>
+  <si>
+    <t>CHRM1</t>
+  </si>
+  <si>
+    <t>GPC3</t>
+  </si>
+  <si>
+    <t>HGF</t>
+  </si>
+  <si>
+    <t>ACKR2</t>
+  </si>
+  <si>
+    <t>CD8A</t>
+  </si>
+  <si>
+    <t>ATG12</t>
+  </si>
+  <si>
+    <t>PRH2</t>
+  </si>
+  <si>
+    <t>ABR</t>
+  </si>
+  <si>
+    <t>PECAM1</t>
+  </si>
+  <si>
+    <t>EML4</t>
+  </si>
+  <si>
+    <t>IDH1</t>
+  </si>
+  <si>
+    <t>CYLD</t>
+  </si>
+  <si>
+    <t>PLEKHA8</t>
+  </si>
+  <si>
+    <t>MLN</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>SERPINB1</t>
+  </si>
+  <si>
+    <t>SLC26A3</t>
+  </si>
+  <si>
+    <t>IRAK1</t>
+  </si>
+  <si>
+    <t>BCL2</t>
+  </si>
+  <si>
+    <t>RALBP1</t>
+  </si>
+  <si>
+    <t>NF1</t>
+  </si>
+  <si>
+    <t>RPL21</t>
+  </si>
+  <si>
+    <t>IRF7</t>
+  </si>
+  <si>
+    <t>DNASE1L3</t>
+  </si>
+  <si>
+    <t>PLXNA3</t>
+  </si>
+  <si>
+    <t>DEPTOR</t>
+  </si>
+  <si>
+    <t>SLC25A19</t>
+  </si>
+  <si>
+    <t>PTGER1</t>
+  </si>
+  <si>
+    <t>CBX8</t>
+  </si>
+  <si>
+    <t>CSF3</t>
+  </si>
+  <si>
+    <t>TPPP3</t>
+  </si>
+  <si>
+    <t>NTF3</t>
+  </si>
+  <si>
+    <t>NUP62</t>
+  </si>
+  <si>
+    <t>ISG15</t>
+  </si>
+  <si>
+    <t>SBDS</t>
+  </si>
+  <si>
+    <t>PLK1</t>
+  </si>
+  <si>
+    <t>TIRAP</t>
+  </si>
+  <si>
+    <t>PLG</t>
+  </si>
+  <si>
+    <t>PTGS2</t>
+  </si>
+  <si>
+    <t>TCF4</t>
+  </si>
+  <si>
+    <t>SCD5</t>
+  </si>
+  <si>
+    <t>KRT31</t>
+  </si>
+  <si>
+    <t>SCN1A</t>
+  </si>
+  <si>
+    <t>SMG1</t>
+  </si>
+  <si>
+    <t>HCRTR1</t>
+  </si>
+  <si>
+    <t>GRIN2C</t>
+  </si>
+  <si>
+    <t>ECD</t>
+  </si>
+  <si>
+    <t>IVNS1ABP</t>
+  </si>
+  <si>
+    <t>ABCB6</t>
+  </si>
+  <si>
+    <t>CSHL1</t>
+  </si>
+  <si>
+    <t>SH3BP4</t>
+  </si>
+  <si>
+    <t>INSR</t>
+  </si>
+  <si>
+    <t>IL2RG</t>
+  </si>
+  <si>
+    <t>MYB</t>
+  </si>
+  <si>
+    <t>SELPLG</t>
+  </si>
+  <si>
+    <t>MON2</t>
+  </si>
+  <si>
+    <t>SF3B1</t>
+  </si>
+  <si>
+    <t>CHRM3</t>
+  </si>
+  <si>
+    <t>AKR1C4</t>
+  </si>
+  <si>
+    <t>FUT3</t>
+  </si>
+  <si>
+    <t>SRSF2</t>
+  </si>
+  <si>
+    <t>APLP2</t>
+  </si>
+  <si>
+    <t>SHBG</t>
+  </si>
+  <si>
+    <t>CRH</t>
+  </si>
+  <si>
+    <t>CPQ</t>
+  </si>
+  <si>
+    <t>IDS</t>
+  </si>
+  <si>
+    <t>MMP9</t>
+  </si>
+  <si>
+    <t>NKX2-1</t>
+  </si>
+  <si>
+    <t>PTGER2</t>
+  </si>
+  <si>
+    <t>LPAR2</t>
+  </si>
+  <si>
+    <t>GRIN3A</t>
+  </si>
+  <si>
+    <t>SLC16A1</t>
+  </si>
+  <si>
+    <t>PDE7A</t>
+  </si>
+  <si>
+    <t>FASN</t>
+  </si>
+  <si>
+    <t>BMP4</t>
+  </si>
+  <si>
+    <t>MAFA</t>
+  </si>
+  <si>
+    <t>PROC</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>CSMD1</t>
+  </si>
+  <si>
+    <t>TNFAIP3</t>
+  </si>
+  <si>
+    <t>CYREN</t>
+  </si>
+  <si>
+    <t>NF2</t>
+  </si>
+  <si>
+    <t>NUP214</t>
+  </si>
+  <si>
+    <t>BCAR1</t>
+  </si>
+  <si>
+    <t>TAF1A</t>
+  </si>
+  <si>
+    <t>RABEPK</t>
+  </si>
+  <si>
+    <t>UBE2Z</t>
+  </si>
+  <si>
+    <t>PCID2</t>
+  </si>
+  <si>
+    <t>FANCD2</t>
+  </si>
+  <si>
+    <t>CTBP1</t>
+  </si>
+  <si>
+    <t>TXNRD1</t>
   </si>
   <si>
     <t>RUNX1T1</t>
   </si>
   <si>
-    <t>CD19</t>
-  </si>
-  <si>
-    <t>PDCD1</t>
-  </si>
-  <si>
-    <t>TNFRSF8</t>
-  </si>
-  <si>
-    <t>AKR1C4</t>
-  </si>
-  <si>
-    <t>SLC17A5</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>CDR2</t>
-  </si>
-  <si>
-    <t>GPR17</t>
-  </si>
-  <si>
-    <t>MUC1</t>
-  </si>
-  <si>
-    <t>SLC39A6</t>
-  </si>
-  <si>
-    <t>ATP8A2</t>
-  </si>
-  <si>
-    <t>POLR3K</t>
-  </si>
-  <si>
-    <t>SLAMF6</t>
-  </si>
-  <si>
-    <t>TIGIT</t>
-  </si>
-  <si>
-    <t>TNFRSF17</t>
-  </si>
-  <si>
-    <t>C12orf57</t>
-  </si>
-  <si>
-    <t>CD44</t>
-  </si>
-  <si>
-    <t>TNFAIP3</t>
-  </si>
-  <si>
-    <t>ERBB2</t>
-  </si>
-  <si>
-    <t>NAMPT</t>
-  </si>
-  <si>
-    <t>GZMB</t>
-  </si>
-  <si>
-    <t>ST6GALNAC1</t>
-  </si>
-  <si>
-    <t>PVR</t>
-  </si>
-  <si>
-    <t>RPL21</t>
-  </si>
-  <si>
-    <t>RTEL1</t>
-  </si>
-  <si>
-    <t>SERPINB3</t>
-  </si>
-  <si>
-    <t>MUC16</t>
-  </si>
-  <si>
-    <t>EGF</t>
-  </si>
-  <si>
-    <t>CD40</t>
-  </si>
-  <si>
-    <t>IL3RA</t>
-  </si>
-  <si>
-    <t>FGFR2</t>
-  </si>
-  <si>
-    <t>CD47</t>
-  </si>
-  <si>
-    <t>BCL2</t>
-  </si>
-  <si>
-    <t>TNFRSF10B</t>
-  </si>
-  <si>
-    <t>QSOX1</t>
-  </si>
-  <si>
-    <t>CD48</t>
-  </si>
-  <si>
-    <t>SPR</t>
-  </si>
-  <si>
-    <t>FLT3</t>
-  </si>
-  <si>
-    <t>WNK1</t>
-  </si>
-  <si>
-    <t>TP53</t>
-  </si>
-  <si>
-    <t>NCOA3</t>
-  </si>
-  <si>
-    <t>MARK2</t>
-  </si>
-  <si>
-    <t>CD74</t>
-  </si>
-  <si>
-    <t>CAPS</t>
-  </si>
-  <si>
-    <t>SLC1A5</t>
-  </si>
-  <si>
-    <t>TBC1D9</t>
-  </si>
-  <si>
-    <t>MELTF</t>
-  </si>
-  <si>
-    <t>CD274</t>
+    <t>MKS1</t>
+  </si>
+  <si>
+    <t>IFNG</t>
+  </si>
+  <si>
+    <t>PCSK7</t>
+  </si>
+  <si>
+    <t>AGTR1</t>
+  </si>
+  <si>
+    <t>STMN4</t>
+  </si>
+  <si>
+    <t>PTCH1</t>
+  </si>
+  <si>
+    <t>SLC12A3</t>
+  </si>
+  <si>
+    <t>PON1</t>
+  </si>
+  <si>
+    <t>PDHX</t>
+  </si>
+  <si>
+    <t>NRG1</t>
+  </si>
+  <si>
+    <t>IP6K3</t>
+  </si>
+  <si>
+    <t>CRCP</t>
+  </si>
+  <si>
+    <t>FAM126A</t>
+  </si>
+  <si>
+    <t>CLCF1</t>
+  </si>
+  <si>
+    <t>PIGS</t>
+  </si>
+  <si>
+    <t>CD7</t>
+  </si>
+  <si>
+    <t>GABARAPL2</t>
+  </si>
+  <si>
+    <t>PRH1</t>
+  </si>
+  <si>
+    <t>IL6R</t>
+  </si>
+  <si>
+    <t>GET3</t>
+  </si>
+  <si>
+    <t>MRLN</t>
+  </si>
+  <si>
+    <t>NISCH</t>
   </si>
   <si>
     <t>CTSB</t>
   </si>
   <si>
-    <t>NRGN</t>
-  </si>
-  <si>
-    <t>EGFR</t>
-  </si>
-  <si>
-    <t>SH2D1A</t>
-  </si>
-  <si>
-    <t>TNF</t>
-  </si>
-  <si>
-    <t>FGFR3</t>
-  </si>
-  <si>
-    <t>QSOX2</t>
-  </si>
-  <si>
-    <t>DUSP5</t>
-  </si>
-  <si>
-    <t>ST6GALNAC4</t>
-  </si>
-  <si>
-    <t>PIGS</t>
-  </si>
-  <si>
-    <t>CPT2</t>
-  </si>
-  <si>
-    <t>CSF3</t>
-  </si>
-  <si>
-    <t>SYT1</t>
-  </si>
-  <si>
-    <t>WEE1</t>
-  </si>
-  <si>
-    <t>CD70</t>
-  </si>
-  <si>
-    <t>PTPRC</t>
-  </si>
-  <si>
-    <t>NRAS</t>
-  </si>
-  <si>
-    <t>CADPS</t>
-  </si>
-  <si>
-    <t>VEGFA</t>
-  </si>
-  <si>
-    <t>EFNA5</t>
-  </si>
-  <si>
-    <t>ALK</t>
-  </si>
-  <si>
-    <t>RPL36</t>
-  </si>
-  <si>
-    <t>NRF1</t>
-  </si>
-  <si>
-    <t>PI3</t>
-  </si>
-  <si>
-    <t>DMXL2</t>
-  </si>
-  <si>
-    <t>PTGS2</t>
-  </si>
-  <si>
-    <t>CD2</t>
-  </si>
-  <si>
-    <t>IL3</t>
-  </si>
-  <si>
-    <t>PSCA</t>
-  </si>
-  <si>
-    <t>THBS1</t>
-  </si>
-  <si>
-    <t>KMT2D</t>
-  </si>
-  <si>
-    <t>EXTL3</t>
-  </si>
-  <si>
-    <t>DUSP8</t>
-  </si>
-  <si>
-    <t>TACR1</t>
-  </si>
-  <si>
-    <t>RELA</t>
-  </si>
-  <si>
-    <t>RAD50</t>
-  </si>
-  <si>
-    <t>FCGR3B</t>
-  </si>
-  <si>
-    <t>GUCY2D</t>
-  </si>
-  <si>
-    <t>BRAF</t>
-  </si>
-  <si>
-    <t>CD226</t>
-  </si>
-  <si>
-    <t>SOD1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>ABCB1</t>
-  </si>
-  <si>
-    <t>SCT</t>
-  </si>
-  <si>
-    <t>SLAMF7</t>
-  </si>
-  <si>
-    <t>VCP</t>
-  </si>
-  <si>
-    <t>PSAT1</t>
-  </si>
-  <si>
-    <t>TSPYL2</t>
-  </si>
-  <si>
-    <t>PGR</t>
-  </si>
-  <si>
-    <t>FCGR3A</t>
+    <t>TNFAIP1</t>
+  </si>
+  <si>
+    <t>IGFBP3</t>
+  </si>
+  <si>
+    <t>MYT1</t>
+  </si>
+  <si>
+    <t>ARSB</t>
+  </si>
+  <si>
+    <t>LRP1</t>
+  </si>
+  <si>
+    <t>PDE3B</t>
+  </si>
+  <si>
+    <t>FLT4</t>
+  </si>
+  <si>
+    <t>DAG1</t>
+  </si>
+  <si>
+    <t>RHOV</t>
   </si>
   <si>
     <t>CD177</t>
   </si>
   <si>
-    <t>NR4A1</t>
-  </si>
-  <si>
-    <t>NECTIN2</t>
-  </si>
-  <si>
-    <t>CRH</t>
-  </si>
-  <si>
-    <t>SCARA3</t>
-  </si>
-  <si>
-    <t>TF</t>
-  </si>
-  <si>
-    <t>PIMREG</t>
-  </si>
-  <si>
-    <t>PDCD1LG2</t>
-  </si>
-  <si>
-    <t>IL2</t>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>PLAG1</t>
   </si>
 </sst>
 </file>
@@ -719,7 +2120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -746,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -754,7 +2155,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -762,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -770,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -778,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -786,7 +2187,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -794,7 +2195,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -802,7 +2203,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -810,7 +2211,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -818,7 +2219,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -826,7 +2227,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -834,7 +2235,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -842,7 +2243,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -850,7 +2251,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -858,7 +2259,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -866,7 +2267,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -874,7 +2275,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -882,7 +2283,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -890,7 +2291,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -898,7 +2299,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -906,7 +2307,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -914,7 +2315,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -922,7 +2323,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -930,7 +2331,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -938,7 +2339,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -946,7 +2347,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -954,7 +2355,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -962,7 +2363,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -970,7 +2371,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -978,7 +2379,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -986,7 +2387,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -994,7 +2395,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1002,7 +2403,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1010,7 +2411,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1018,7 +2419,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1026,7 +2427,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1034,7 +2435,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1042,7 +2443,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1050,7 +2451,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1058,7 +2459,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1066,7 +2467,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1074,7 +2475,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1082,7 +2483,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1090,7 +2491,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1098,7 +2499,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1106,7 +2507,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1114,7 +2515,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1122,7 +2523,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1130,7 +2531,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1138,7 +2539,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1146,7 +2547,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1154,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1162,7 +2563,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1170,7 +2571,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1178,7 +2579,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1186,7 +2587,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1194,7 +2595,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1202,7 +2603,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1210,7 +2611,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1218,7 +2619,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1226,7 +2627,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1234,7 +2635,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1242,7 +2643,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1250,7 +2651,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1258,7 +2659,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1266,7 +2667,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1274,7 +2675,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1282,7 +2683,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1290,7 +2691,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1298,7 +2699,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1306,7 +2707,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1314,7 +2715,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1322,7 +2723,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1330,7 +2731,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1338,7 +2739,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1346,7 +2747,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1354,7 +2755,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1362,7 +2763,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1370,7 +2771,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1378,7 +2779,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1386,7 +2787,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1394,7 +2795,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1402,7 +2803,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1410,7 +2811,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1418,7 +2819,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1426,7 +2827,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1434,7 +2835,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1442,7 +2843,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1450,7 +2851,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1458,7 +2859,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1466,7 +2867,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1474,7 +2875,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1482,7 +2883,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1490,7 +2891,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1498,7 +2899,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1506,7 +2907,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1514,7 +2915,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1522,7 +2923,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1530,7 +2931,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1538,7 +2939,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1546,7 +2947,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1554,7 +2955,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1562,7 +2963,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1570,7 +2971,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1578,7 +2979,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1586,7 +2987,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1594,7 +2995,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1602,7 +3003,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1610,7 +3011,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1618,7 +3019,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1626,7 +3027,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1634,7 +3035,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1642,6 +3043,3742 @@
         <v>115</v>
       </c>
       <c r="B115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>476</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>477</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>478</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>480</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>481</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>482</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>483</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>484</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>485</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>486</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>487</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>488</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>489</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>490</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>491</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>492</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>493</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>494</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>495</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>496</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
+        <v>497</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" t="s">
+        <v>498</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" t="s">
+        <v>499</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" t="s">
+        <v>500</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" t="s">
+        <v>501</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" t="s">
+        <v>502</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" t="s">
+        <v>503</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" t="s">
+        <v>504</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" t="s">
+        <v>505</v>
+      </c>
+      <c r="B505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" t="s">
+        <v>506</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" t="s">
+        <v>507</v>
+      </c>
+      <c r="B507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" t="s">
+        <v>508</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" t="s">
+        <v>509</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" t="s">
+        <v>510</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" t="s">
+        <v>511</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" t="s">
+        <v>512</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" t="s">
+        <v>513</v>
+      </c>
+      <c r="B513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" t="s">
+        <v>514</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" t="s">
+        <v>515</v>
+      </c>
+      <c r="B515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" t="s">
+        <v>516</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" t="s">
+        <v>517</v>
+      </c>
+      <c r="B517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" t="s">
+        <v>518</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" t="s">
+        <v>519</v>
+      </c>
+      <c r="B519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" t="s">
+        <v>520</v>
+      </c>
+      <c r="B520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" t="s">
+        <v>521</v>
+      </c>
+      <c r="B521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" t="s">
+        <v>522</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" t="s">
+        <v>523</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" t="s">
+        <v>524</v>
+      </c>
+      <c r="B524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" t="s">
+        <v>525</v>
+      </c>
+      <c r="B525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" t="s">
+        <v>526</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" t="s">
+        <v>527</v>
+      </c>
+      <c r="B527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" t="s">
+        <v>528</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" t="s">
+        <v>529</v>
+      </c>
+      <c r="B529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" t="s">
+        <v>530</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" t="s">
+        <v>531</v>
+      </c>
+      <c r="B531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" t="s">
+        <v>532</v>
+      </c>
+      <c r="B532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" t="s">
+        <v>533</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" t="s">
+        <v>534</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" t="s">
+        <v>535</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" t="s">
+        <v>536</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" t="s">
+        <v>537</v>
+      </c>
+      <c r="B537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" t="s">
+        <v>538</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" t="s">
+        <v>539</v>
+      </c>
+      <c r="B539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" t="s">
+        <v>540</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" t="s">
+        <v>541</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" t="s">
+        <v>542</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" t="s">
+        <v>543</v>
+      </c>
+      <c r="B543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" t="s">
+        <v>544</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" t="s">
+        <v>545</v>
+      </c>
+      <c r="B545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" t="s">
+        <v>546</v>
+      </c>
+      <c r="B546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" t="s">
+        <v>547</v>
+      </c>
+      <c r="B547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" t="s">
+        <v>548</v>
+      </c>
+      <c r="B548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" t="s">
+        <v>549</v>
+      </c>
+      <c r="B549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" t="s">
+        <v>550</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" t="s">
+        <v>551</v>
+      </c>
+      <c r="B551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" t="s">
+        <v>552</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" t="s">
+        <v>553</v>
+      </c>
+      <c r="B553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" t="s">
+        <v>554</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" t="s">
+        <v>555</v>
+      </c>
+      <c r="B555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" t="s">
+        <v>556</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" t="s">
+        <v>557</v>
+      </c>
+      <c r="B557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" t="s">
+        <v>558</v>
+      </c>
+      <c r="B558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" t="s">
+        <v>559</v>
+      </c>
+      <c r="B559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" t="s">
+        <v>560</v>
+      </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" t="s">
+        <v>561</v>
+      </c>
+      <c r="B561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" t="s">
+        <v>562</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" t="s">
+        <v>563</v>
+      </c>
+      <c r="B563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" t="s">
+        <v>564</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" t="s">
+        <v>565</v>
+      </c>
+      <c r="B565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" t="s">
+        <v>566</v>
+      </c>
+      <c r="B566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" t="s">
+        <v>567</v>
+      </c>
+      <c r="B567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" t="s">
+        <v>568</v>
+      </c>
+      <c r="B568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" t="s">
+        <v>569</v>
+      </c>
+      <c r="B569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" t="s">
+        <v>570</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" t="s">
+        <v>571</v>
+      </c>
+      <c r="B571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" t="s">
+        <v>572</v>
+      </c>
+      <c r="B572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" t="s">
+        <v>573</v>
+      </c>
+      <c r="B573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" t="s">
+        <v>574</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" t="s">
+        <v>575</v>
+      </c>
+      <c r="B575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" t="s">
+        <v>576</v>
+      </c>
+      <c r="B576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" t="s">
+        <v>577</v>
+      </c>
+      <c r="B577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" t="s">
+        <v>578</v>
+      </c>
+      <c r="B578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" t="s">
+        <v>579</v>
+      </c>
+      <c r="B579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" t="s">
+        <v>580</v>
+      </c>
+      <c r="B580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" t="s">
+        <v>581</v>
+      </c>
+      <c r="B581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" t="s">
+        <v>582</v>
+      </c>
+      <c r="B582">
         <v>1</v>
       </c>
     </row>
